--- a/SpaOnline/EventStorming/Sucursales-Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Sucursales-Event Storming.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Escritorio\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED235E58-5573-4EA7-A076-06A7450281E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDE1764-0DE6-4000-8959-33D802913AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="6" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
@@ -578,9 +578,6 @@
     <t>Esta accion permite consultar los diferentes Horariolaborales de las sucursales del spa</t>
   </si>
   <si>
-    <t>Pol-Horariolaboral-004</t>
-  </si>
-  <si>
     <t>Pol-Horariolaboral-006</t>
   </si>
   <si>
@@ -606,6 +603,9 @@
   </si>
   <si>
     <t>Pol-Horariolaboralervicio-004</t>
+  </si>
+  <si>
+    <t>Pol-Horariolaboral-005</t>
   </si>
 </sst>
 </file>
@@ -1177,6 +1177,114 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1189,6 +1297,156 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1237,8 +1495,158 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1246,419 +1654,11 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2082,21 +2082,21 @@
       <c r="A1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
@@ -2141,21 +2141,21 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -2169,7 +2169,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -2183,7 +2183,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="32" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -2216,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="B4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,84 +2244,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="131" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Pais</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="133" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene información acerca del pais donde se encuentran las sucursales del spa.</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="134"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="40" t="s">
+      <c r="F4" s="109"/>
+      <c r="G4" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -2331,52 +2331,52 @@
       <c r="K4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="130" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="38" t="s">
+      <c r="F5" s="109"/>
+      <c r="G5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="41" t="s">
+      <c r="H5" s="124"/>
+      <c r="I5" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="130"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="19" t="s">
         <v>21</v>
       </c>
@@ -2389,329 +2389,353 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="130"/>
     </row>
     <row r="7" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60" t="s">
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59" t="s">
+      <c r="I7" s="102"/>
+      <c r="J7" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59" t="s">
+      <c r="K7" s="102"/>
+      <c r="L7" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="35" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67" t="s">
+      <c r="A8" s="111"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="62" t="s">
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="62" t="s">
+      <c r="A9" s="112"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78" t="s">
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78" t="s">
+      <c r="I10" s="80"/>
+      <c r="J10" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78" t="s">
+      <c r="K10" s="80"/>
+      <c r="L10" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="75" t="s">
+      <c r="M10" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
       <c r="F11" s="81"/>
       <c r="G11" s="81"/>
-      <c r="H11" s="80"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
       <c r="K11" s="81"/>
       <c r="L11" s="81"/>
-      <c r="M11" s="75" t="s">
+      <c r="M11" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
       <c r="F12" s="81"/>
       <c r="G12" s="81"/>
-      <c r="H12" s="80"/>
+      <c r="H12" s="97"/>
       <c r="I12" s="81"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
       <c r="L12" s="81"/>
-      <c r="M12" s="82" t="s">
+      <c r="M12" s="83" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="86"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="85" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="91" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="90" t="s">
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="91" t="s">
+      <c r="H14" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87" t="s">
+      <c r="I14" s="85"/>
+      <c r="J14" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="87"/>
-      <c r="L14" s="92" t="s">
+      <c r="K14" s="85"/>
+      <c r="L14" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="93" t="s">
+      <c r="M14" s="40" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="92" t="s">
+      <c r="A15" s="86"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="97" t="s">
+      <c r="H15" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="87" t="s">
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="98" t="s">
+      <c r="M15" s="94" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="90" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="102" t="s">
+      <c r="H16" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="103"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="95"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104" t="s">
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="105" t="s">
+      <c r="H17" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104" t="s">
+      <c r="I17" s="69"/>
+      <c r="J17" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="104"/>
-      <c r="L17" s="107" t="s">
+      <c r="K17" s="69"/>
+      <c r="L17" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="108" t="s">
+      <c r="M17" s="72" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="107" t="s">
+      <c r="A18" s="70"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="112"/>
+      <c r="M18" s="73"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="113"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="116" t="s">
+      <c r="A19" s="71"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="117" t="s">
+      <c r="M19" s="45" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
     <mergeCell ref="L10:L13"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="A14:A16"/>
@@ -2728,42 +2752,18 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="H10:H13"/>
     <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2779,8 +2779,8 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:M20"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,84 +2807,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="131" t="str">
         <f>'Listado Objetos de Dominio'!$A$5</f>
         <v>Departamento</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="133" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que contiene información acerca del Departamento donde se encuentran las sucursales del spa.</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="134"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="40" t="s">
+      <c r="F4" s="109"/>
+      <c r="G4" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -2894,52 +2894,52 @@
       <c r="K4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="130" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="38" t="s">
+      <c r="F5" s="109"/>
+      <c r="G5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="41" t="s">
+      <c r="H5" s="124"/>
+      <c r="I5" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="130"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="19" t="s">
         <v>21</v>
       </c>
@@ -2952,348 +2952,373 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="130"/>
     </row>
     <row r="7" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="180" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122" t="s">
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="123" t="s">
+      <c r="H7" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121" t="s">
+      <c r="I7" s="168"/>
+      <c r="J7" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121" t="s">
+      <c r="K7" s="168"/>
+      <c r="L7" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="M7" s="124" t="s">
+      <c r="M7" s="48" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129" t="s">
+      <c r="A8" s="178"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="171" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="130" t="s">
+      <c r="H8" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="124" t="s">
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="48" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="133" t="s">
+      <c r="A9" s="178"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="175" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="134"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="138" t="s">
+      <c r="A10" s="179"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="139" t="s">
+      <c r="H10" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="140"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="176"/>
     </row>
     <row r="11" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="165" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="144" t="s">
+      <c r="D11" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144" t="s">
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="143" t="s">
+      <c r="H11" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144" t="s">
+      <c r="I11" s="146"/>
+      <c r="J11" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144" t="s">
+      <c r="K11" s="146"/>
+      <c r="L11" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="141" t="s">
+      <c r="M11" s="52" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="145"/>
-      <c r="C12" s="146"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="163"/>
       <c r="D12" s="147"/>
       <c r="E12" s="147"/>
       <c r="F12" s="147"/>
       <c r="G12" s="147"/>
-      <c r="H12" s="146"/>
+      <c r="H12" s="163"/>
       <c r="I12" s="147"/>
       <c r="J12" s="147"/>
       <c r="K12" s="147"/>
       <c r="L12" s="147"/>
-      <c r="M12" s="141" t="s">
+      <c r="M12" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="145"/>
-      <c r="C13" s="146"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="163"/>
       <c r="D13" s="147"/>
       <c r="E13" s="147"/>
       <c r="F13" s="147"/>
       <c r="G13" s="147"/>
-      <c r="H13" s="146"/>
+      <c r="H13" s="163"/>
       <c r="I13" s="147"/>
       <c r="J13" s="147"/>
       <c r="K13" s="147"/>
       <c r="L13" s="147"/>
-      <c r="M13" s="148" t="s">
+      <c r="M13" s="149" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="149"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="152"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="150"/>
     </row>
     <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="151" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="155" t="s">
+      <c r="C15" s="157" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="156" t="s">
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="157" t="s">
+      <c r="H15" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153" t="s">
+      <c r="I15" s="151"/>
+      <c r="J15" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="153"/>
-      <c r="L15" s="158" t="s">
+      <c r="K15" s="151"/>
+      <c r="L15" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="M15" s="159" t="s">
+      <c r="M15" s="56" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="160"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="158" t="s">
+      <c r="A16" s="152"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="163" t="s">
+      <c r="H16" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="153" t="s">
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="164" t="s">
+      <c r="M16" s="160" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="165"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="156" t="s">
+      <c r="A17" s="153"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="168" t="s">
+      <c r="H17" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="169"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="161"/>
     </row>
     <row r="18" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="170" t="s">
+      <c r="A18" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="170" t="s">
+      <c r="D18" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170" t="s">
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="171" t="s">
+      <c r="H18" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170" t="s">
+      <c r="I18" s="135"/>
+      <c r="J18" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="170"/>
-      <c r="L18" s="173" t="s">
+      <c r="K18" s="135"/>
+      <c r="L18" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="M18" s="174" t="s">
+      <c r="M18" s="138" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="175"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="175"/>
-      <c r="L19" s="173" t="s">
+      <c r="A19" s="136"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="M19" s="178"/>
+      <c r="M19" s="139"/>
     </row>
     <row r="20" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="179"/>
-      <c r="B20" s="180"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="182" t="s">
+      <c r="A20" s="137"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="183" t="s">
+      <c r="M20" s="61" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
     <mergeCell ref="L11:L14"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="A15:A17"/>
@@ -3310,43 +3335,18 @@
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
@@ -3389,84 +3389,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="131" t="str">
         <f>'Listado Objetos de Dominio'!$A$6</f>
         <v>Ciudad</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="133" t="str">
         <f>'Listado Objetos de Dominio'!$B$6</f>
         <v>Objeto de dominio que contiene información acerca de la ciudad donde se encuentran las Sucursales del spa.</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="134"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="40" t="s">
+      <c r="F4" s="109"/>
+      <c r="G4" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -3476,52 +3476,52 @@
       <c r="K4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="187" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="38" t="s">
+      <c r="F5" s="109"/>
+      <c r="G5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="41" t="s">
+      <c r="H5" s="124"/>
+      <c r="I5" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="187"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="19" t="s">
         <v>21</v>
       </c>
@@ -3534,336 +3534,385 @@
       <c r="H6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
-    </row>
-    <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="I6" s="127"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="187"/>
+    </row>
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122" t="s">
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="123" t="s">
+      <c r="H7" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121" t="s">
+      <c r="I7" s="168"/>
+      <c r="J7" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121" t="s">
+      <c r="K7" s="168"/>
+      <c r="L7" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="M7" s="124" t="s">
+      <c r="M7" s="48" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129" t="s">
+      <c r="A8" s="178"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="130" t="s">
+      <c r="H8" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="124" t="s">
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="48" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="133" t="s">
+      <c r="A9" s="178"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="175" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="134"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="138" t="s">
+      <c r="A10" s="179"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="139" t="s">
+      <c r="H10" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="140"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="176"/>
     </row>
     <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="165" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="162" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="144" t="s">
+      <c r="D11" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144" t="s">
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="143" t="s">
+      <c r="H11" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144" t="s">
+      <c r="I11" s="146"/>
+      <c r="J11" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144" t="s">
+      <c r="K11" s="146"/>
+      <c r="L11" s="146" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="141" t="s">
+      <c r="M11" s="52" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="145"/>
-      <c r="C12" s="146"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="163"/>
       <c r="D12" s="147"/>
       <c r="E12" s="147"/>
       <c r="F12" s="147"/>
       <c r="G12" s="147"/>
-      <c r="H12" s="146"/>
+      <c r="H12" s="163"/>
       <c r="I12" s="147"/>
       <c r="J12" s="147"/>
       <c r="K12" s="147"/>
       <c r="L12" s="147"/>
-      <c r="M12" s="141" t="s">
+      <c r="M12" s="52" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="145"/>
-      <c r="C13" s="146"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="163"/>
       <c r="D13" s="147"/>
       <c r="E13" s="147"/>
       <c r="F13" s="147"/>
       <c r="G13" s="147"/>
-      <c r="H13" s="146"/>
+      <c r="H13" s="163"/>
       <c r="I13" s="147"/>
       <c r="J13" s="147"/>
       <c r="K13" s="147"/>
       <c r="L13" s="147"/>
-      <c r="M13" s="148" t="s">
+      <c r="M13" s="149" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="149"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="152"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="150"/>
     </row>
     <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="151" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="155" t="s">
+      <c r="C15" s="157" t="s">
         <v>115</v>
       </c>
       <c r="D15" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="156" t="s">
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="157" t="s">
+      <c r="H15" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153" t="s">
+      <c r="I15" s="151"/>
+      <c r="J15" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="153"/>
-      <c r="L15" s="158" t="s">
+      <c r="K15" s="151"/>
+      <c r="L15" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="M15" s="159" t="s">
+      <c r="M15" s="56" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="160"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="158" t="s">
+      <c r="A16" s="152"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="163" t="s">
+      <c r="H16" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="153" t="s">
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="164" t="s">
+      <c r="M16" s="160" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="165"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="156" t="s">
+      <c r="A17" s="153"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="168" t="s">
+      <c r="H17" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="169"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="161"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="170" t="s">
+      <c r="A18" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="170" t="s">
+      <c r="D18" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170" t="s">
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="171" t="s">
+      <c r="H18" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170" t="s">
+      <c r="I18" s="135"/>
+      <c r="J18" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="170"/>
-      <c r="L18" s="173" t="s">
+      <c r="K18" s="135"/>
+      <c r="L18" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="M18" s="174" t="s">
+      <c r="M18" s="138" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="175"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="175"/>
-      <c r="L19" s="173" t="s">
+      <c r="A19" s="136"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="178"/>
+      <c r="M19" s="139"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="179"/>
-      <c r="B20" s="180"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="182" t="s">
+      <c r="A20" s="137"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="M20" s="183" t="s">
+      <c r="M20" s="61" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
@@ -3880,55 +3929,6 @@
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D411DE6F-B6AA-4877-8454-AEC23893A3C7}"/>
@@ -3944,8 +3944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582F37F3-04E0-4BB0-8ED8-3EED4861690D}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3972,84 +3972,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="131" t="str">
         <f>'Listado Objetos de Dominio'!A8</f>
         <v>Sucursal</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="133" t="str">
         <f>'Listado Objetos de Dominio'!B8</f>
         <v>Objeto de dominio que contiene información acerca de la ubicación donde se encuentran las Sucursales del spa.</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="134"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="40" t="s">
+      <c r="F4" s="109"/>
+      <c r="G4" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -4059,52 +4059,52 @@
       <c r="K4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="187" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="38" t="s">
+      <c r="F5" s="109"/>
+      <c r="G5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="41" t="s">
+      <c r="H5" s="124"/>
+      <c r="I5" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="187"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="19" t="s">
         <v>21</v>
       </c>
@@ -4117,375 +4117,346 @@
       <c r="H6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="187"/>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="180" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122" t="s">
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="123" t="s">
+      <c r="H7" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121" t="s">
+      <c r="I7" s="168"/>
+      <c r="J7" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121" t="s">
+      <c r="K7" s="168"/>
+      <c r="L7" s="168" t="s">
         <v>134</v>
       </c>
-      <c r="M7" s="124" t="s">
+      <c r="M7" s="48" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129" t="s">
+      <c r="A8" s="178"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="130" t="s">
+      <c r="H8" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="124" t="s">
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="48" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="133" t="s">
+      <c r="A9" s="178"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="175" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="134"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="138" t="s">
+      <c r="A10" s="179"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="139" t="s">
+      <c r="H10" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="140"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="176"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="162" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="144" t="s">
+      <c r="D11" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144" t="s">
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="143" t="s">
+      <c r="H11" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144" t="s">
+      <c r="I11" s="146"/>
+      <c r="J11" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144" t="s">
+      <c r="K11" s="146"/>
+      <c r="L11" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="M11" s="141" t="s">
+      <c r="M11" s="52" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="145"/>
-      <c r="C12" s="146"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="163"/>
       <c r="D12" s="147"/>
       <c r="E12" s="147"/>
       <c r="F12" s="147"/>
       <c r="G12" s="147"/>
-      <c r="H12" s="146"/>
+      <c r="H12" s="163"/>
       <c r="I12" s="147"/>
       <c r="J12" s="147"/>
       <c r="K12" s="147"/>
       <c r="L12" s="147"/>
-      <c r="M12" s="141" t="s">
+      <c r="M12" s="52" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="145"/>
-      <c r="C13" s="146"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="163"/>
       <c r="D13" s="147"/>
       <c r="E13" s="147"/>
       <c r="F13" s="147"/>
       <c r="G13" s="147"/>
-      <c r="H13" s="146"/>
+      <c r="H13" s="163"/>
       <c r="I13" s="147"/>
       <c r="J13" s="147"/>
       <c r="K13" s="147"/>
       <c r="L13" s="147"/>
-      <c r="M13" s="148" t="s">
+      <c r="M13" s="149" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="149"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="152"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="150"/>
     </row>
     <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="151" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="154" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="155" t="s">
+      <c r="C15" s="157" t="s">
         <v>141</v>
       </c>
       <c r="D15" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="156" t="s">
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="157" t="s">
+      <c r="H15" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153" t="s">
+      <c r="I15" s="151"/>
+      <c r="J15" s="151" t="s">
         <v>146</v>
       </c>
-      <c r="K15" s="153"/>
-      <c r="L15" s="158" t="s">
+      <c r="K15" s="151"/>
+      <c r="L15" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="M15" s="159" t="s">
+      <c r="M15" s="56" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="160"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="158" t="s">
+      <c r="A16" s="152"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="163" t="s">
+      <c r="H16" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="153" t="s">
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="M16" s="164" t="s">
+      <c r="M16" s="160" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="165"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="156" t="s">
+      <c r="A17" s="153"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="H17" s="168" t="s">
+      <c r="H17" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="169"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="161"/>
     </row>
     <row r="18" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="170" t="s">
+      <c r="A18" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="170" t="s">
+      <c r="D18" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170" t="s">
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="171" t="s">
+      <c r="H18" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170" t="s">
+      <c r="I18" s="135"/>
+      <c r="J18" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="K18" s="170"/>
-      <c r="L18" s="173" t="s">
+      <c r="K18" s="135"/>
+      <c r="L18" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="M18" s="174" t="s">
+      <c r="M18" s="138" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="175"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="175"/>
-      <c r="L19" s="173" t="s">
+      <c r="A19" s="136"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="M19" s="178"/>
+      <c r="M19" s="139"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="179"/>
-      <c r="B20" s="180"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="182" t="s">
+      <c r="A20" s="137"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="M20" s="183" t="s">
+      <c r="M20" s="61" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>
@@ -4502,16 +4473,45 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{C82BA2AE-4C8D-4135-AE4C-C05CE2DB14F2}"/>
@@ -4527,7 +4527,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E14" sqref="E14:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4554,84 +4554,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="131" t="str">
         <f>'Listado Objetos de Dominio'!A9</f>
         <v>Horario Laboral</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="133" t="str">
         <f>'Listado Objetos de Dominio'!B9</f>
         <v>Objeto de dominio que contiene información acerca de los horarios laborales de las Sucursales del spa.</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="134"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="40" t="s">
+      <c r="F4" s="109"/>
+      <c r="G4" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -4641,52 +4641,52 @@
       <c r="K4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="187" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="38" t="s">
+      <c r="F5" s="109"/>
+      <c r="G5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="41" t="s">
+      <c r="H5" s="124"/>
+      <c r="I5" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="187"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="19" t="s">
         <v>21</v>
       </c>
@@ -4699,355 +4699,327 @@
       <c r="H6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="187"/>
     </row>
     <row r="7" spans="1:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="183" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="168" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="184" t="s">
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="123" t="s">
+      <c r="H7" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121" t="s">
+      <c r="I7" s="168"/>
+      <c r="J7" s="168" t="s">
         <v>159</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121" t="s">
+      <c r="K7" s="168"/>
+      <c r="L7" s="168" t="s">
         <v>160</v>
       </c>
-      <c r="M7" s="124" t="s">
+      <c r="M7" s="48" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="185" t="s">
+      <c r="A8" s="178"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="188" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="130" t="s">
+      <c r="H8" s="173" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="124" t="s">
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="48" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="189" t="s">
+      <c r="A9" s="178"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="49" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="165" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="162" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="144" t="s">
+      <c r="D10" s="146" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="142" t="s">
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="143" t="s">
+      <c r="H10" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144" t="s">
+      <c r="I10" s="146"/>
+      <c r="J10" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144" t="s">
+      <c r="K10" s="146"/>
+      <c r="L10" s="146" t="s">
         <v>159</v>
       </c>
-      <c r="M10" s="141" t="s">
+      <c r="M10" s="52" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="145"/>
-      <c r="C11" s="146"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="163"/>
       <c r="D11" s="147"/>
       <c r="E11" s="147"/>
       <c r="F11" s="147"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="146"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="163"/>
       <c r="I11" s="147"/>
       <c r="J11" s="147"/>
       <c r="K11" s="147"/>
       <c r="L11" s="147"/>
-      <c r="M11" s="141" t="s">
+      <c r="M11" s="52" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="145"/>
-      <c r="C12" s="146"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="163"/>
       <c r="D12" s="147"/>
       <c r="E12" s="147"/>
       <c r="F12" s="147"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="146"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="163"/>
       <c r="I12" s="147"/>
       <c r="J12" s="147"/>
       <c r="K12" s="147"/>
       <c r="L12" s="147"/>
-      <c r="M12" s="148" t="s">
+      <c r="M12" s="149" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="149"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="152"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="150"/>
     </row>
     <row r="14" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="151" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="154" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="157" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="187" t="s">
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="151"/>
+      <c r="L14" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" s="56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="152"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="151" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" s="160" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="153"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="H14" s="157" t="s">
-        <v>167</v>
-      </c>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153" t="s">
+      <c r="H16" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="161"/>
+    </row>
+    <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="135" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="140" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="K14" s="153"/>
-      <c r="L14" s="158" t="s">
+      <c r="D17" s="135" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="140" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="135"/>
+      <c r="L17" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="M14" s="159" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="188" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="163" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="153" t="s">
+      <c r="M17" s="138" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="136"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="M15" s="164" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="165"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="187" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="168" t="s">
+      <c r="M18" s="139"/>
+    </row>
+    <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="137"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="169"/>
-    </row>
-    <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="170" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="171" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="172" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="170" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="171" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" s="171" t="s">
-        <v>172</v>
-      </c>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170" t="s">
-        <v>173</v>
-      </c>
-      <c r="K17" s="170"/>
-      <c r="L17" s="173" t="s">
-        <v>159</v>
-      </c>
-      <c r="M17" s="174" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="175"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="173" t="s">
-        <v>160</v>
-      </c>
-      <c r="M18" s="178"/>
-    </row>
-    <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="179"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="182" t="s">
-        <v>170</v>
-      </c>
-      <c r="M19" s="183" t="s">
+      <c r="M19" s="61" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
@@ -5064,16 +5036,44 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{C94FA97C-4ED6-4478-9E7C-EC94A7DDE84C}"/>
@@ -5116,84 +5116,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45" t="str">
+      <c r="B2" s="131" t="str">
         <f>'Listado Objetos de Dominio'!A7</f>
         <v>Spa Online</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="133" t="str">
         <f>'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que contiene información acerca del spa.</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="134"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="40" t="s">
+      <c r="F4" s="109"/>
+      <c r="G4" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -5203,52 +5203,52 @@
       <c r="K4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="187" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="38" t="s">
+      <c r="F5" s="109"/>
+      <c r="G5" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="41" t="s">
+      <c r="H5" s="124"/>
+      <c r="I5" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="187"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="19" t="s">
         <v>21</v>
       </c>
@@ -5261,11 +5261,11 @@
       <c r="H6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="187"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -5329,13 +5329,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -5346,6 +5339,13 @@
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{E1262D6D-A9AE-4170-B9C8-824A3DB96C15}"/>
@@ -5357,9 +5357,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5507,27 +5510,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5551,9 +5542,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SpaOnline/EventStorming/Sucursales-Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Sucursales-Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79711501-EA42-47BB-9273-AD86E92855FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B80439-8E94-4BC6-BE4F-6608A770F1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="6" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -1047,7 +1047,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1185,6 +1185,46 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1197,6 +1237,37 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1242,10 +1313,169 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1260,9 +1490,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1275,14 +1502,11 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1290,274 +1514,47 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1981,21 +1978,21 @@
       <c r="A1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
@@ -2143,84 +2140,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="88" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Pais</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="63" t="str">
+      <c r="B3" s="90" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene información acerca del pais donde se encuentran las sucursales del spa.</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="56" t="s">
+      <c r="F4" s="92"/>
+      <c r="G4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="56"/>
+      <c r="H4" s="83"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -2230,52 +2227,52 @@
       <c r="K4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="87" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="57" t="s">
+      <c r="H5" s="81"/>
+      <c r="I5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="59"/>
-      <c r="M5" s="60"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="67"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
@@ -2288,72 +2285,72 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="60"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="87"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121" t="s">
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121" t="s">
+      <c r="I7" s="65"/>
+      <c r="J7" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
     </row>
     <row r="8" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="124"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
     </row>
     <row r="10" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2363,17 +2360,9 @@
     <row r="16" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="A8:A9"/>
@@ -2390,9 +2379,17 @@
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2437,84 +2434,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="88" t="str">
         <f>'Listado Objetos de Dominio'!$A$5</f>
         <v>Departamento</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="63" t="str">
+      <c r="B3" s="90" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que contiene información acerca del Departamento donde se encuentran las sucursales del spa.</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="56" t="s">
+      <c r="F4" s="92"/>
+      <c r="G4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="56"/>
+      <c r="H4" s="83"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -2524,52 +2521,52 @@
       <c r="K4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="87" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="57" t="s">
+      <c r="H5" s="81"/>
+      <c r="I5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="59"/>
-      <c r="M5" s="60"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="67"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
@@ -2582,76 +2579,76 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="60"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="E7" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="133" t="s">
+      <c r="G7" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="133"/>
-      <c r="J7" s="121" t="s">
+      <c r="I7" s="93"/>
+      <c r="J7" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="133"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
     </row>
     <row r="8" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="124"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
     </row>
     <row r="11" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2661,23 +2658,6 @@
     <row r="20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -2691,6 +2671,23 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
@@ -2734,84 +2731,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="88" t="str">
         <f>'Listado Objetos de Dominio'!$A$6</f>
         <v>Ciudad</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="63" t="str">
+      <c r="B3" s="90" t="str">
         <f>'Listado Objetos de Dominio'!$B$6</f>
         <v>Objeto de dominio que contiene información acerca de la ciudad donde se encuentran las Sucursales del spa.</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="56" t="s">
+      <c r="F4" s="92"/>
+      <c r="G4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="56"/>
+      <c r="H4" s="83"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -2821,52 +2818,52 @@
       <c r="K4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="118" t="s">
+      <c r="M4" s="103" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="57" t="s">
+      <c r="H5" s="81"/>
+      <c r="I5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="117"/>
-      <c r="M5" s="118"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="67"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
@@ -2879,76 +2876,76 @@
       <c r="H6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="118"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="133" t="s">
+      <c r="E7" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="140" t="s">
+      <c r="F7" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="133" t="s">
+      <c r="G7" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="133"/>
-      <c r="J7" s="121" t="s">
+      <c r="I7" s="93"/>
+      <c r="J7" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="133"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="141"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="141"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="124"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="141"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="49"/>
     </row>
     <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2956,17 +2953,8 @@
     <row r="14" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:N1"/>
@@ -2983,8 +2971,17 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D411DE6F-B6AA-4877-8454-AEC23893A3C7}"/>
@@ -3000,7 +2997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582F37F3-04E0-4BB0-8ED8-3EED4861690D}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -3029,84 +3026,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="88" t="str">
         <f>'Listado Objetos de Dominio'!A8</f>
         <v>Sucursal</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="63" t="str">
+      <c r="B3" s="90" t="str">
         <f>'Listado Objetos de Dominio'!B8</f>
         <v>Objeto de dominio que contiene información acerca de la ubicación donde se encuentran las Sucursales del spa.</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="56" t="s">
+      <c r="F4" s="92"/>
+      <c r="G4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="56"/>
+      <c r="H4" s="83"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -3116,52 +3113,52 @@
       <c r="K4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="118" t="s">
+      <c r="M4" s="103" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="57" t="s">
+      <c r="H5" s="81"/>
+      <c r="I5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="117"/>
-      <c r="M5" s="118"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="67"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
@@ -3174,29 +3171,29 @@
       <c r="H6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="118"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="145" t="s">
+      <c r="E7" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="146" t="s">
+      <c r="F7" s="51" t="s">
         <v>88</v>
       </c>
       <c r="G7" s="27" t="s">
@@ -3205,12 +3202,12 @@
       <c r="H7" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77" t="s">
+      <c r="I7" s="137"/>
+      <c r="J7" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77" t="s">
+      <c r="K7" s="137"/>
+      <c r="L7" s="137" t="s">
         <v>60</v>
       </c>
       <c r="M7" s="29" t="s">
@@ -3218,101 +3215,101 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="147" t="s">
+      <c r="A8" s="149"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="148" t="s">
+      <c r="G8" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="149" t="s">
+      <c r="H8" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
       <c r="M8" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="148" t="s">
+      <c r="A9" s="149"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="149" t="s">
+      <c r="H9" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="82" t="s">
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="140" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="72"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="147"/>
       <c r="G10" s="31" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="83"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="141"/>
     </row>
     <row r="11" spans="1:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="131" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="150" t="s">
+      <c r="F11" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="90" t="s">
+      <c r="H11" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84" t="s">
+      <c r="I11" s="131"/>
+      <c r="J11" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84" t="s">
+      <c r="K11" s="131"/>
+      <c r="L11" s="131" t="s">
         <v>59</v>
       </c>
       <c r="M11" s="33" t="s">
@@ -3323,21 +3320,21 @@
       <c r="A12" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="151" t="s">
+      <c r="B12" s="143"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="152" t="s">
+      <c r="F12" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
       <c r="M12" s="33" t="s">
         <v>61</v>
       </c>
@@ -3346,18 +3343,18 @@
       <c r="A13" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="93" t="s">
+      <c r="B13" s="143"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="135" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3365,36 +3362,36 @@
       <c r="A14" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="94"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="136"/>
     </row>
     <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="98" t="s">
+      <c r="D15" s="123" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="170" t="s">
+      <c r="F15" s="58" t="s">
         <v>88</v>
       </c>
       <c r="G15" s="34" t="s">
@@ -3403,11 +3400,11 @@
       <c r="H15" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95" t="s">
+      <c r="I15" s="104"/>
+      <c r="J15" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="K15" s="95"/>
+      <c r="K15" s="104"/>
       <c r="L15" s="36" t="s">
         <v>59</v>
       </c>
@@ -3416,14 +3413,14 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="172" t="s">
+      <c r="A16" s="122"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="99" t="s">
+      <c r="F16" s="116" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="36" t="s">
@@ -3432,105 +3429,105 @@
       <c r="H16" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="95" t="s">
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="104" t="s">
+      <c r="M16" s="106" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="100"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="117"/>
       <c r="G17" s="34" t="s">
         <v>74</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="107"/>
     </row>
     <row r="18" spans="1:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D18" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="171" t="s">
+      <c r="E18" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="173" t="s">
+      <c r="F18" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="106" t="s">
+      <c r="G18" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="109" t="s">
+      <c r="H18" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106" t="s">
+      <c r="I18" s="110"/>
+      <c r="J18" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="106"/>
+      <c r="K18" s="110"/>
       <c r="L18" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="115" t="s">
+      <c r="M18" s="108" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="174" t="s">
+      <c r="A19" s="111"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="110" t="s">
+      <c r="F19" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="107"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
       <c r="L19" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="116"/>
+      <c r="M19" s="109"/>
     </row>
     <row r="20" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
       <c r="L20" s="41" t="s">
         <v>71</v>
       </c>
@@ -3539,19 +3536,54 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E21" s="174"/>
-      <c r="F21" s="110"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F19:F21"/>
     <mergeCell ref="A18:A20"/>
@@ -3564,49 +3596,14 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{C82BA2AE-4C8D-4135-AE4C-C05CE2DB14F2}"/>
@@ -3621,8 +3618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B040DBBB-A770-4D53-B836-42B4174772D6}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3650,84 +3647,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="88" t="str">
         <f>'Listado Objetos de Dominio'!A9</f>
         <v>Agenda</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="63" t="str">
+      <c r="B3" s="90" t="str">
         <f>'Listado Objetos de Dominio'!B9</f>
         <v>Objeto de domino que representa la disponibilidad de la sucursal para agendar las reservas</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="56" t="s">
+      <c r="F4" s="92"/>
+      <c r="G4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="56"/>
+      <c r="H4" s="83"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -3737,52 +3734,52 @@
       <c r="K4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="118" t="s">
+      <c r="M4" s="103" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="57" t="s">
+      <c r="H5" s="81"/>
+      <c r="I5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="117"/>
-      <c r="M5" s="118"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="67"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
@@ -3795,29 +3792,29 @@
       <c r="H6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="118"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="151" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="43" t="s">
@@ -3826,12 +3823,12 @@
       <c r="H7" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77" t="s">
+      <c r="I7" s="137"/>
+      <c r="J7" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77" t="s">
+      <c r="K7" s="137"/>
+      <c r="L7" s="137" t="s">
         <v>124</v>
       </c>
       <c r="M7" s="29" t="s">
@@ -3839,74 +3836,74 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="119" t="s">
+      <c r="A8" s="149"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
       <c r="M8" s="29" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
+      <c r="A9" s="149"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
       <c r="M9" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="142" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="G10" s="142" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="90" t="s">
+      <c r="H10" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84" t="s">
+      <c r="I10" s="131"/>
+      <c r="J10" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84" t="s">
+      <c r="K10" s="131"/>
+      <c r="L10" s="131" t="s">
         <v>123</v>
       </c>
       <c r="M10" s="33" t="s">
@@ -3914,18 +3911,18 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
       <c r="M11" s="33" t="s">
         <v>105</v>
       </c>
@@ -3934,18 +3931,18 @@
       <c r="A12" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="93" t="s">
+      <c r="B12" s="143"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="135" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3953,36 +3950,36 @@
       <c r="A13" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="94"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="136"/>
     </row>
     <row r="14" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="123" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="98" t="s">
+      <c r="F14" s="123" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="44" t="s">
@@ -3991,11 +3988,11 @@
       <c r="H14" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95" t="s">
+      <c r="I14" s="104"/>
+      <c r="J14" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="K14" s="95"/>
+      <c r="K14" s="104"/>
       <c r="L14" s="36" t="s">
         <v>123</v>
       </c>
@@ -4004,113 +4001,113 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="99"/>
+      <c r="A15" s="122"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="116"/>
       <c r="G15" s="45" t="s">
         <v>112</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="95" t="s">
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="M15" s="104" t="s">
+      <c r="M15" s="106" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="100"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="117"/>
       <c r="G16" s="44" t="s">
         <v>115</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="107"/>
     </row>
     <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="106" t="s">
+      <c r="D17" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="106" t="s">
+      <c r="E17" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="109" t="s">
+      <c r="F17" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="109" t="s">
+      <c r="G17" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="109" t="s">
+      <c r="H17" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106" t="s">
+      <c r="I17" s="110"/>
+      <c r="J17" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="K17" s="106"/>
+      <c r="K17" s="110"/>
       <c r="L17" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="M17" s="115" t="s">
+      <c r="M17" s="108" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
       <c r="L18" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="116"/>
+      <c r="M18" s="109"/>
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
       <c r="L19" s="41" t="s">
         <v>125</v>
       </c>
@@ -4120,6 +4117,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M15:M16"/>
@@ -4136,55 +4182,6 @@
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{C94FA97C-4ED6-4478-9E7C-EC94A7DDE84C}"/>
@@ -4227,84 +4224,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="88" t="str">
         <f>'Listado Objetos de Dominio'!A7</f>
         <v xml:space="preserve">Spa </v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="63" t="str">
+      <c r="B3" s="90" t="str">
         <f>'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que contiene información acerca del spa.</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="56" t="s">
+      <c r="F4" s="92"/>
+      <c r="G4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="56"/>
+      <c r="H4" s="83"/>
       <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
@@ -4314,52 +4311,52 @@
       <c r="K4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="118" t="s">
+      <c r="M4" s="103" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="57" t="s">
+      <c r="H5" s="81"/>
+      <c r="I5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="117"/>
-      <c r="M5" s="118"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="67"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
@@ -4372,93 +4369,79 @@
       <c r="H6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="118"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="156" t="s">
+      <c r="D7" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="156" t="s">
+      <c r="E7" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="155" t="s">
+      <c r="F7" s="164" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="156" t="s">
+      <c r="G7" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="155" t="s">
+      <c r="H7" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="156"/>
-      <c r="J7" s="155" t="s">
+      <c r="I7" s="161"/>
+      <c r="J7" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="156"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="158"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="57"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="165"/>
       <c r="D8" s="162"/>
       <c r="E8" s="162"/>
-      <c r="F8" s="161"/>
+      <c r="F8" s="165"/>
       <c r="G8" s="162"/>
-      <c r="H8" s="161"/>
+      <c r="H8" s="165"/>
       <c r="I8" s="162"/>
       <c r="J8" s="162"/>
       <c r="K8" s="162"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="164"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="160"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="165"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="168"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="169"/>
-      <c r="M9" s="164"/>
+      <c r="A9" s="168"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -4475,6 +4458,20 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="L8:L9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{E1262D6D-A9AE-4170-B9C8-824A3DB96C15}"/>
@@ -4486,9 +4483,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4636,27 +4636,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4680,9 +4668,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
